--- a/Interfaccia Gara PC/Sistema Interfaccia 24_05/Ordine_Volo.xlsx
+++ b/Interfaccia Gara PC/Sistema Interfaccia 24_05/Ordine_Volo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giacomo\Documents\GitHub\Sistema_Pylon\Interfaccia Gara PC\Sistema Interfaccia 14_05_23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giacomo\Documents\GitHub\Sistema_Pylon\Interfaccia Gara PC\Sistema Interfaccia 24_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F0686B-4122-4564-A5DA-F4086EA4A510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC58A4E8-8DBD-47CB-8568-7252975B0972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2850" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{919661E1-1C13-40E3-9381-691995EE6759}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{E14EA449-CC9B-484C-8E0B-FED95612204A}"/>
   </bookViews>
   <sheets>
     <sheet name="Q500" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="66">
   <si>
     <t>Q500</t>
   </si>
@@ -103,25 +103,40 @@
     <t>Manche N:6</t>
   </si>
   <si>
-    <t>Marcel Huisman</t>
+    <t>Renzo Razzi</t>
   </si>
   <si>
-    <t>Robbert v.d. Bosch</t>
+    <t>Gianmarco Razzi</t>
   </si>
   <si>
-    <t>Paolo Mucedola</t>
+    <t>Tommy Henriksson</t>
+  </si>
+  <si>
+    <t>Thomas Nyholm</t>
+  </si>
+  <si>
+    <t>Beatriz Yepes</t>
+  </si>
+  <si>
+    <t>Wayne Willcox</t>
+  </si>
+  <si>
+    <t>Robert Metkemeijer</t>
+  </si>
+  <si>
+    <t>Börje Ragnarsson</t>
+  </si>
+  <si>
+    <t>Fahad Al-Hemaidi</t>
+  </si>
+  <si>
+    <t>Rick Smith</t>
+  </si>
+  <si>
+    <t>Mattia Canevari</t>
   </si>
   <si>
     <t>Alice Mucedola</t>
-  </si>
-  <si>
-    <t>Dan Coe</t>
-  </si>
-  <si>
-    <t>Richard Beers</t>
-  </si>
-  <si>
-    <t>Mattia Canevari</t>
   </si>
   <si>
     <t>Gunnar Broberg</t>
@@ -130,10 +145,19 @@
     <t>Kenneth Mustelin</t>
   </si>
   <si>
-    <t>Matthew Fehling</t>
+    <t>Christian Wolf</t>
   </si>
   <si>
-    <t>Ricki Racker</t>
+    <t>Robbert v.d. Bosch</t>
+  </si>
+  <si>
+    <t>Abdullah Al-Thani</t>
+  </si>
+  <si>
+    <t>Gerald Coors</t>
+  </si>
+  <si>
+    <t>Cüneyt Uher</t>
   </si>
   <si>
     <t>Massimo Caniparoli</t>
@@ -142,28 +166,34 @@
     <t>Agrusa Alessandro</t>
   </si>
   <si>
+    <t>Kenneth Johansson</t>
+  </si>
+  <si>
+    <t>Ray van de Klok</t>
+  </si>
+  <si>
+    <t>Alejandro Pereira</t>
+  </si>
+  <si>
+    <t>Richard Beers</t>
+  </si>
+  <si>
+    <t>Dan Coe</t>
+  </si>
+  <si>
+    <t>Roberto Cavallaro</t>
+  </si>
+  <si>
+    <t>Salvatore Paonessa</t>
+  </si>
+  <si>
     <t>Riccardo Tosi</t>
   </si>
   <si>
     <t>Simone Tosi</t>
   </si>
   <si>
-    <t>Wayne Willcox</t>
-  </si>
-  <si>
-    <t>Robert Metkemeijer</t>
-  </si>
-  <si>
-    <t>Beatriz Yepes</t>
-  </si>
-  <si>
-    <t>Simon Nyholm</t>
-  </si>
-  <si>
-    <t>Thomas Nyholm</t>
-  </si>
-  <si>
-    <t>Christian Wolf</t>
+    <t>Paolo Mucedola</t>
   </si>
   <si>
     <t>Michele Perni</t>
@@ -172,16 +202,19 @@
     <t>Luca Grossi</t>
   </si>
   <si>
-    <t>Alejandro Pereira</t>
+    <t>Antonio Tosi</t>
   </si>
   <si>
-    <t>Roberto Cavallaro</t>
+    <t>Simon Nyholm</t>
   </si>
   <si>
-    <t>Salvatore Paonessa</t>
+    <t>Desgruelles Gilles</t>
   </si>
   <si>
-    <t>Tommy Henriksson</t>
+    <t>Oudin Hervè</t>
+  </si>
+  <si>
+    <t>Marcel Huisman</t>
   </si>
   <si>
     <t>Richard Verano</t>
@@ -193,55 +226,16 @@
     <t>Leon Uher</t>
   </si>
   <si>
-    <t>Gerald Coors</t>
+    <t>Roberto Losi</t>
   </si>
   <si>
-    <t>Fahad Al-Hemaidi</t>
-  </si>
-  <si>
-    <t>Rick Smith</t>
-  </si>
-  <si>
-    <t>Antonio Tosi</t>
-  </si>
-  <si>
-    <t>Abdullah Al-Thani</t>
-  </si>
-  <si>
-    <t>Renzo Razzi</t>
-  </si>
-  <si>
-    <t>Gianmarco Razzi</t>
-  </si>
-  <si>
-    <t>Kenneth Johansson</t>
-  </si>
-  <si>
-    <t>Börje Ragnarsson</t>
-  </si>
-  <si>
-    <t>Desgruelles Gilles</t>
-  </si>
-  <si>
-    <t>Oudin Hervè</t>
-  </si>
-  <si>
-    <t>Cüneyt Uher</t>
-  </si>
-  <si>
-    <t>Ray van de Klok</t>
+    <t>Wim Lentjes</t>
   </si>
   <si>
     <t>Perella Carlo</t>
   </si>
   <si>
     <t>Pastrovicchio Luca</t>
-  </si>
-  <si>
-    <t>Wim Lentjes</t>
-  </si>
-  <si>
-    <t>Roberto Losi</t>
   </si>
 </sst>
 </file>
@@ -503,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -599,6 +593,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,15 +917,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0258BBB6-2F3F-4CF1-A692-CDFF653DF3B9}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDCEFB6-58CB-4660-B860-D13906F2389A}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1798,20 +1796,14 @@
     <mergeCell ref="N8:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF573AF-31B8-45B4-A931-2703A9A81017}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D8A090-75C4-485B-81B0-A857CA22D9B4}">
   <dimension ref="A1:S153"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30:M31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2098,7 +2090,7 @@
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="21" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="R12" s="21"/>
       <c r="S12" s="23"/>
@@ -2129,12 +2121,12 @@
         <v>2</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
@@ -2144,17 +2136,17 @@
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
       <c r="K14" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L14" s="30"/>
       <c r="M14" s="30"/>
       <c r="N14" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O14" s="29"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R14" s="30"/>
       <c r="S14" s="31"/>
@@ -2185,32 +2177,32 @@
         <v>3</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
       <c r="H16" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
       <c r="N16" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
       <c r="Q16" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R16" s="30"/>
       <c r="S16" s="31"/>
@@ -2241,32 +2233,32 @@
         <v>4</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="30" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
       <c r="K18" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
       <c r="N18" s="29" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="30" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="R18" s="30"/>
       <c r="S18" s="31"/>
@@ -2297,32 +2289,32 @@
         <v>5</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" s="30" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="29" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
       <c r="K20" s="30" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
       <c r="N20" s="29" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O20" s="29"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="30" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="R20" s="30"/>
       <c r="S20" s="31"/>
@@ -2373,12 +2365,12 @@
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
       <c r="N22" s="29" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="O22" s="29"/>
       <c r="P22" s="29"/>
       <c r="Q22" s="30" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="R22" s="30"/>
       <c r="S22" s="31"/>
@@ -2409,32 +2401,32 @@
         <v>7</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="30" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
       <c r="H24" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
       <c r="K24" s="30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
       <c r="N24" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O24" s="29"/>
       <c r="P24" s="29"/>
       <c r="Q24" s="30" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="R24" s="30"/>
       <c r="S24" s="31"/>
@@ -2480,17 +2472,17 @@
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
       <c r="K26" s="30" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
       <c r="N26" s="29" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="30" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="R26" s="30"/>
       <c r="S26" s="31"/>
@@ -2521,32 +2513,32 @@
         <v>9</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="30" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="29" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="30" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
       <c r="N28" s="29" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
       <c r="Q28" s="30" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="R28" s="30"/>
       <c r="S28" s="31"/>
@@ -2577,32 +2569,32 @@
         <v>10</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
       <c r="E30" s="30" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F30" s="30"/>
       <c r="G30" s="30"/>
       <c r="H30" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
       <c r="K30" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L30" s="30"/>
       <c r="M30" s="30"/>
       <c r="N30" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O30" s="29"/>
       <c r="P30" s="29"/>
       <c r="Q30" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R30" s="30"/>
       <c r="S30" s="31"/>
@@ -2633,32 +2625,32 @@
         <v>11</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
       <c r="E32" s="30" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F32" s="30"/>
       <c r="G32" s="30"/>
       <c r="H32" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
       <c r="K32" s="30" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="L32" s="30"/>
       <c r="M32" s="30"/>
       <c r="N32" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O32" s="29"/>
       <c r="P32" s="29"/>
       <c r="Q32" s="30" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="R32" s="30"/>
       <c r="S32" s="31"/>
@@ -2733,12 +2725,12 @@
         <v>1</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="19"/>
       <c r="D36" s="19"/>
       <c r="E36" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -2758,7 +2750,7 @@
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
       <c r="Q36" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R36" s="21"/>
       <c r="S36" s="23"/>
@@ -2789,32 +2781,32 @@
         <v>2</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
       <c r="E38" s="30" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
       <c r="H38" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
       <c r="K38" s="30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L38" s="30"/>
       <c r="M38" s="30"/>
       <c r="N38" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
       <c r="Q38" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R38" s="30"/>
       <c r="S38" s="31"/>
@@ -2845,32 +2837,32 @@
         <v>3</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
       <c r="E40" s="30" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F40" s="30"/>
       <c r="G40" s="30"/>
       <c r="H40" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
       <c r="K40" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L40" s="30"/>
       <c r="M40" s="30"/>
       <c r="N40" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O40" s="29"/>
       <c r="P40" s="29"/>
       <c r="Q40" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R40" s="30"/>
       <c r="S40" s="31"/>
@@ -2901,32 +2893,32 @@
         <v>4</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
       <c r="E42" s="30" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F42" s="30"/>
       <c r="G42" s="30"/>
       <c r="H42" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
       <c r="K42" s="30" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L42" s="30"/>
       <c r="M42" s="30"/>
       <c r="N42" s="29" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="O42" s="29"/>
       <c r="P42" s="29"/>
       <c r="Q42" s="30" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="R42" s="30"/>
       <c r="S42" s="31"/>
@@ -2957,22 +2949,22 @@
         <v>5</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="30" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
       <c r="H44" s="29" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
       <c r="K44" s="30" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="L44" s="30"/>
       <c r="M44" s="30"/>
@@ -3013,12 +3005,12 @@
         <v>6</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
       <c r="E46" s="30" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
@@ -3033,12 +3025,12 @@
       <c r="L46" s="30"/>
       <c r="M46" s="30"/>
       <c r="N46" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O46" s="29"/>
       <c r="P46" s="29"/>
       <c r="Q46" s="30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R46" s="30"/>
       <c r="S46" s="31"/>
@@ -3069,22 +3061,22 @@
         <v>7</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="30" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
       <c r="H48" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I48" s="29"/>
       <c r="J48" s="29"/>
       <c r="K48" s="30" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L48" s="30"/>
       <c r="M48" s="30"/>
@@ -3094,7 +3086,7 @@
       <c r="O48" s="29"/>
       <c r="P48" s="29"/>
       <c r="Q48" s="30" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="R48" s="30"/>
       <c r="S48" s="31"/>
@@ -3125,12 +3117,12 @@
         <v>8</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="29"/>
       <c r="E50" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F50" s="30"/>
       <c r="G50" s="30"/>
@@ -3145,12 +3137,12 @@
       <c r="L50" s="30"/>
       <c r="M50" s="30"/>
       <c r="N50" s="29" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="O50" s="29"/>
       <c r="P50" s="29"/>
       <c r="Q50" s="30" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="R50" s="30"/>
       <c r="S50" s="31"/>
@@ -3181,32 +3173,32 @@
         <v>9</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C52" s="29"/>
       <c r="D52" s="29"/>
       <c r="E52" s="30" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F52" s="30"/>
       <c r="G52" s="30"/>
       <c r="H52" s="29" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="I52" s="29"/>
       <c r="J52" s="29"/>
       <c r="K52" s="30" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="L52" s="30"/>
       <c r="M52" s="30"/>
       <c r="N52" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O52" s="29"/>
       <c r="P52" s="29"/>
       <c r="Q52" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R52" s="30"/>
       <c r="S52" s="31"/>
@@ -3242,27 +3234,27 @@
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
       <c r="E54" s="30" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F54" s="30"/>
       <c r="G54" s="30"/>
       <c r="H54" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I54" s="29"/>
       <c r="J54" s="29"/>
       <c r="K54" s="30" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="L54" s="30"/>
       <c r="M54" s="30"/>
       <c r="N54" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
       <c r="Q54" s="30" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="R54" s="30"/>
       <c r="S54" s="31"/>
@@ -3293,22 +3285,22 @@
         <v>11</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
       <c r="E56" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F56" s="30"/>
       <c r="G56" s="30"/>
       <c r="H56" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I56" s="29"/>
       <c r="J56" s="29"/>
       <c r="K56" s="30" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L56" s="30"/>
       <c r="M56" s="30"/>
@@ -3393,22 +3385,22 @@
         <v>1</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
       <c r="H60" s="19" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I60" s="19"/>
       <c r="J60" s="19"/>
       <c r="K60" s="21" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="L60" s="21"/>
       <c r="M60" s="21"/>
@@ -3449,32 +3441,32 @@
         <v>2</v>
       </c>
       <c r="B62" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
       <c r="E62" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F62" s="30"/>
       <c r="G62" s="30"/>
       <c r="H62" s="29" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I62" s="29"/>
       <c r="J62" s="29"/>
       <c r="K62" s="30" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="L62" s="30"/>
       <c r="M62" s="30"/>
       <c r="N62" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O62" s="29"/>
       <c r="P62" s="29"/>
       <c r="Q62" s="30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R62" s="30"/>
       <c r="S62" s="31"/>
@@ -3505,32 +3497,32 @@
         <v>3</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
       <c r="E64" s="30" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F64" s="30"/>
       <c r="G64" s="30"/>
       <c r="H64" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I64" s="29"/>
       <c r="J64" s="29"/>
       <c r="K64" s="30" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="L64" s="30"/>
       <c r="M64" s="30"/>
       <c r="N64" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O64" s="29"/>
       <c r="P64" s="29"/>
       <c r="Q64" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R64" s="30"/>
       <c r="S64" s="31"/>
@@ -3571,22 +3563,22 @@
       <c r="F66" s="30"/>
       <c r="G66" s="30"/>
       <c r="H66" s="29" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I66" s="29"/>
       <c r="J66" s="29"/>
       <c r="K66" s="30" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L66" s="30"/>
       <c r="M66" s="30"/>
       <c r="N66" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O66" s="29"/>
       <c r="P66" s="29"/>
       <c r="Q66" s="30" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="R66" s="30"/>
       <c r="S66" s="31"/>
@@ -3617,32 +3609,32 @@
         <v>5</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
       <c r="E68" s="30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F68" s="30"/>
       <c r="G68" s="30"/>
       <c r="H68" s="29" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="I68" s="29"/>
       <c r="J68" s="29"/>
       <c r="K68" s="30" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L68" s="30"/>
       <c r="M68" s="30"/>
       <c r="N68" s="29" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="O68" s="29"/>
       <c r="P68" s="29"/>
       <c r="Q68" s="30" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="R68" s="30"/>
       <c r="S68" s="31"/>
@@ -3678,17 +3670,17 @@
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
       <c r="E70" s="30" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F70" s="30"/>
       <c r="G70" s="30"/>
       <c r="H70" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I70" s="29"/>
       <c r="J70" s="29"/>
       <c r="K70" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L70" s="30"/>
       <c r="M70" s="30"/>
@@ -3729,32 +3721,32 @@
         <v>7</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
       <c r="E72" s="30" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F72" s="30"/>
       <c r="G72" s="30"/>
       <c r="H72" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I72" s="29"/>
       <c r="J72" s="29"/>
       <c r="K72" s="30" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="L72" s="30"/>
       <c r="M72" s="30"/>
       <c r="N72" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O72" s="29"/>
       <c r="P72" s="29"/>
       <c r="Q72" s="30" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R72" s="30"/>
       <c r="S72" s="31"/>
@@ -3785,12 +3777,12 @@
         <v>8</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
       <c r="E74" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F74" s="30"/>
       <c r="G74" s="30"/>
@@ -3800,7 +3792,7 @@
       <c r="I74" s="29"/>
       <c r="J74" s="29"/>
       <c r="K74" s="30" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="L74" s="30"/>
       <c r="M74" s="30"/>
@@ -3841,32 +3833,32 @@
         <v>9</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C76" s="29"/>
       <c r="D76" s="29"/>
       <c r="E76" s="30" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F76" s="30"/>
       <c r="G76" s="30"/>
       <c r="H76" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I76" s="29"/>
       <c r="J76" s="29"/>
       <c r="K76" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L76" s="30"/>
       <c r="M76" s="30"/>
       <c r="N76" s="29" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="O76" s="29"/>
       <c r="P76" s="29"/>
       <c r="Q76" s="30" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="R76" s="30"/>
       <c r="S76" s="31"/>
@@ -3907,22 +3899,22 @@
       <c r="F78" s="30"/>
       <c r="G78" s="30"/>
       <c r="H78" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I78" s="29"/>
       <c r="J78" s="29"/>
       <c r="K78" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L78" s="30"/>
       <c r="M78" s="30"/>
       <c r="N78" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O78" s="29"/>
       <c r="P78" s="29"/>
       <c r="Q78" s="30" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="R78" s="30"/>
       <c r="S78" s="31"/>
@@ -3958,27 +3950,27 @@
       <c r="C80" s="29"/>
       <c r="D80" s="29"/>
       <c r="E80" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F80" s="30"/>
       <c r="G80" s="30"/>
       <c r="H80" s="29" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I80" s="29"/>
       <c r="J80" s="29"/>
       <c r="K80" s="30" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="L80" s="30"/>
       <c r="M80" s="30"/>
       <c r="N80" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O80" s="29"/>
       <c r="P80" s="29"/>
       <c r="Q80" s="30" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="R80" s="30"/>
       <c r="S80" s="31"/>
@@ -4063,22 +4055,22 @@
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
       <c r="H84" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I84" s="19"/>
       <c r="J84" s="19"/>
       <c r="K84" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L84" s="21"/>
       <c r="M84" s="21"/>
       <c r="N84" s="19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O84" s="19"/>
       <c r="P84" s="19"/>
       <c r="Q84" s="21" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="R84" s="21"/>
       <c r="S84" s="23"/>
@@ -4109,32 +4101,32 @@
         <v>2</v>
       </c>
       <c r="B86" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C86" s="29"/>
       <c r="D86" s="29"/>
       <c r="E86" s="30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F86" s="30"/>
       <c r="G86" s="30"/>
       <c r="H86" s="29" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I86" s="29"/>
       <c r="J86" s="29"/>
       <c r="K86" s="30" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="L86" s="30"/>
       <c r="M86" s="30"/>
       <c r="N86" s="29" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="O86" s="29"/>
       <c r="P86" s="29"/>
       <c r="Q86" s="30" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="R86" s="30"/>
       <c r="S86" s="31"/>
@@ -4165,12 +4157,12 @@
         <v>3</v>
       </c>
       <c r="B88" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C88" s="29"/>
       <c r="D88" s="29"/>
       <c r="E88" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F88" s="30"/>
       <c r="G88" s="30"/>
@@ -4185,12 +4177,12 @@
       <c r="L88" s="30"/>
       <c r="M88" s="30"/>
       <c r="N88" s="29" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="O88" s="29"/>
       <c r="P88" s="29"/>
       <c r="Q88" s="30" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="R88" s="30"/>
       <c r="S88" s="31"/>
@@ -4221,32 +4213,32 @@
         <v>4</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C90" s="29"/>
       <c r="D90" s="29"/>
       <c r="E90" s="30" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F90" s="30"/>
       <c r="G90" s="30"/>
       <c r="H90" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I90" s="29"/>
       <c r="J90" s="29"/>
       <c r="K90" s="30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L90" s="30"/>
       <c r="M90" s="30"/>
       <c r="N90" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O90" s="29"/>
       <c r="P90" s="29"/>
       <c r="Q90" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R90" s="30"/>
       <c r="S90" s="31"/>
@@ -4277,12 +4269,12 @@
         <v>5</v>
       </c>
       <c r="B92" s="29" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C92" s="29"/>
       <c r="D92" s="29"/>
       <c r="E92" s="30" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F92" s="30"/>
       <c r="G92" s="30"/>
@@ -4292,17 +4284,17 @@
       <c r="I92" s="29"/>
       <c r="J92" s="29"/>
       <c r="K92" s="30" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="L92" s="30"/>
       <c r="M92" s="30"/>
       <c r="N92" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O92" s="29"/>
       <c r="P92" s="29"/>
       <c r="Q92" s="30" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="R92" s="30"/>
       <c r="S92" s="31"/>
@@ -4343,12 +4335,12 @@
       <c r="F94" s="30"/>
       <c r="G94" s="30"/>
       <c r="H94" s="29" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I94" s="29"/>
       <c r="J94" s="29"/>
       <c r="K94" s="30" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="L94" s="30"/>
       <c r="M94" s="30"/>
@@ -4358,7 +4350,7 @@
       <c r="O94" s="29"/>
       <c r="P94" s="29"/>
       <c r="Q94" s="30" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="R94" s="30"/>
       <c r="S94" s="31"/>
@@ -4389,32 +4381,32 @@
         <v>7</v>
       </c>
       <c r="B96" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C96" s="29"/>
       <c r="D96" s="29"/>
       <c r="E96" s="30" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F96" s="30"/>
       <c r="G96" s="30"/>
       <c r="H96" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I96" s="29"/>
       <c r="J96" s="29"/>
       <c r="K96" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L96" s="30"/>
       <c r="M96" s="30"/>
       <c r="N96" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O96" s="29"/>
       <c r="P96" s="29"/>
       <c r="Q96" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R96" s="30"/>
       <c r="S96" s="31"/>
@@ -4455,22 +4447,22 @@
       <c r="F98" s="30"/>
       <c r="G98" s="30"/>
       <c r="H98" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I98" s="29"/>
       <c r="J98" s="29"/>
       <c r="K98" s="30" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="L98" s="30"/>
       <c r="M98" s="30"/>
       <c r="N98" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O98" s="29"/>
       <c r="P98" s="29"/>
       <c r="Q98" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R98" s="30"/>
       <c r="S98" s="31"/>
@@ -4501,12 +4493,12 @@
         <v>9</v>
       </c>
       <c r="B100" s="29" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="C100" s="29"/>
       <c r="D100" s="29"/>
       <c r="E100" s="30" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F100" s="30"/>
       <c r="G100" s="30"/>
@@ -4521,12 +4513,12 @@
       <c r="L100" s="30"/>
       <c r="M100" s="30"/>
       <c r="N100" s="29" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="O100" s="29"/>
       <c r="P100" s="29"/>
       <c r="Q100" s="30" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="R100" s="30"/>
       <c r="S100" s="31"/>
@@ -4557,12 +4549,12 @@
         <v>10</v>
       </c>
       <c r="B102" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C102" s="29"/>
       <c r="D102" s="29"/>
       <c r="E102" s="30" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F102" s="30"/>
       <c r="G102" s="30"/>
@@ -4572,17 +4564,17 @@
       <c r="I102" s="29"/>
       <c r="J102" s="29"/>
       <c r="K102" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L102" s="30"/>
       <c r="M102" s="30"/>
       <c r="N102" s="29" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="O102" s="29"/>
       <c r="P102" s="29"/>
       <c r="Q102" s="30" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="R102" s="30"/>
       <c r="S102" s="31"/>
@@ -4613,32 +4605,32 @@
         <v>11</v>
       </c>
       <c r="B104" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C104" s="29"/>
       <c r="D104" s="29"/>
       <c r="E104" s="30" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F104" s="30"/>
       <c r="G104" s="30"/>
       <c r="H104" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I104" s="29"/>
       <c r="J104" s="29"/>
       <c r="K104" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L104" s="30"/>
       <c r="M104" s="30"/>
       <c r="N104" s="29" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="O104" s="29"/>
       <c r="P104" s="29"/>
       <c r="Q104" s="30" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="R104" s="30"/>
       <c r="S104" s="31"/>
@@ -4713,12 +4705,12 @@
         <v>1</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
       <c r="E108" s="21" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F108" s="21"/>
       <c r="G108" s="21"/>
@@ -4733,12 +4725,12 @@
       <c r="L108" s="21"/>
       <c r="M108" s="21"/>
       <c r="N108" s="19" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="O108" s="19"/>
       <c r="P108" s="19"/>
       <c r="Q108" s="21" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="R108" s="21"/>
       <c r="S108" s="23"/>
@@ -4769,22 +4761,22 @@
         <v>2</v>
       </c>
       <c r="B110" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C110" s="29"/>
       <c r="D110" s="29"/>
       <c r="E110" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F110" s="30"/>
       <c r="G110" s="30"/>
       <c r="H110" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I110" s="29"/>
       <c r="J110" s="29"/>
       <c r="K110" s="30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L110" s="30"/>
       <c r="M110" s="30"/>
@@ -4825,32 +4817,32 @@
         <v>3</v>
       </c>
       <c r="B112" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C112" s="29"/>
       <c r="D112" s="29"/>
       <c r="E112" s="30" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="F112" s="30"/>
       <c r="G112" s="30"/>
       <c r="H112" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I112" s="29"/>
       <c r="J112" s="29"/>
       <c r="K112" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L112" s="30"/>
       <c r="M112" s="30"/>
       <c r="N112" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O112" s="29"/>
       <c r="P112" s="29"/>
       <c r="Q112" s="30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R112" s="30"/>
       <c r="S112" s="31"/>
@@ -4886,17 +4878,17 @@
       <c r="C114" s="29"/>
       <c r="D114" s="29"/>
       <c r="E114" s="30" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F114" s="30"/>
       <c r="G114" s="30"/>
       <c r="H114" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I114" s="29"/>
       <c r="J114" s="29"/>
       <c r="K114" s="30" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L114" s="30"/>
       <c r="M114" s="30"/>
@@ -4906,7 +4898,7 @@
       <c r="O114" s="29"/>
       <c r="P114" s="29"/>
       <c r="Q114" s="30" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="R114" s="30"/>
       <c r="S114" s="31"/>
@@ -4937,32 +4929,32 @@
         <v>5</v>
       </c>
       <c r="B116" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C116" s="29"/>
       <c r="D116" s="29"/>
       <c r="E116" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F116" s="30"/>
       <c r="G116" s="30"/>
       <c r="H116" s="29" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I116" s="29"/>
       <c r="J116" s="29"/>
       <c r="K116" s="30" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="L116" s="30"/>
       <c r="M116" s="30"/>
       <c r="N116" s="29" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="O116" s="29"/>
       <c r="P116" s="29"/>
       <c r="Q116" s="30" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="R116" s="30"/>
       <c r="S116" s="31"/>
@@ -4993,12 +4985,12 @@
         <v>6</v>
       </c>
       <c r="B118" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C118" s="29"/>
       <c r="D118" s="29"/>
       <c r="E118" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F118" s="30"/>
       <c r="G118" s="30"/>
@@ -5013,12 +5005,12 @@
       <c r="L118" s="30"/>
       <c r="M118" s="30"/>
       <c r="N118" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O118" s="29"/>
       <c r="P118" s="29"/>
       <c r="Q118" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R118" s="30"/>
       <c r="S118" s="31"/>
@@ -5049,32 +5041,32 @@
         <v>7</v>
       </c>
       <c r="B120" s="29" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C120" s="29"/>
       <c r="D120" s="29"/>
       <c r="E120" s="30" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F120" s="30"/>
       <c r="G120" s="30"/>
       <c r="H120" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I120" s="29"/>
       <c r="J120" s="29"/>
       <c r="K120" s="30" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L120" s="30"/>
       <c r="M120" s="30"/>
       <c r="N120" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O120" s="29"/>
       <c r="P120" s="29"/>
       <c r="Q120" s="30" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="R120" s="30"/>
       <c r="S120" s="31"/>
@@ -5105,12 +5097,12 @@
         <v>8</v>
       </c>
       <c r="B122" s="29" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C122" s="29"/>
       <c r="D122" s="29"/>
       <c r="E122" s="30" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F122" s="30"/>
       <c r="G122" s="30"/>
@@ -5161,22 +5153,22 @@
         <v>9</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C124" s="29"/>
       <c r="D124" s="29"/>
       <c r="E124" s="30" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="F124" s="30"/>
       <c r="G124" s="30"/>
       <c r="H124" s="29" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="I124" s="29"/>
       <c r="J124" s="29"/>
       <c r="K124" s="30" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="L124" s="30"/>
       <c r="M124" s="30"/>
@@ -5186,7 +5178,7 @@
       <c r="O124" s="29"/>
       <c r="P124" s="29"/>
       <c r="Q124" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R124" s="30"/>
       <c r="S124" s="31"/>
@@ -5217,32 +5209,32 @@
         <v>10</v>
       </c>
       <c r="B126" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C126" s="29"/>
       <c r="D126" s="29"/>
       <c r="E126" s="30" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F126" s="30"/>
       <c r="G126" s="30"/>
       <c r="H126" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I126" s="29"/>
       <c r="J126" s="29"/>
       <c r="K126" s="30" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="L126" s="30"/>
       <c r="M126" s="30"/>
       <c r="N126" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O126" s="29"/>
       <c r="P126" s="29"/>
       <c r="Q126" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R126" s="30"/>
       <c r="S126" s="31"/>
@@ -5273,32 +5265,32 @@
         <v>11</v>
       </c>
       <c r="B128" s="29" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C128" s="29"/>
       <c r="D128" s="29"/>
       <c r="E128" s="30" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F128" s="30"/>
       <c r="G128" s="30"/>
       <c r="H128" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I128" s="29"/>
       <c r="J128" s="29"/>
       <c r="K128" s="30" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="L128" s="30"/>
       <c r="M128" s="30"/>
       <c r="N128" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O128" s="29"/>
       <c r="P128" s="29"/>
       <c r="Q128" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R128" s="30"/>
       <c r="S128" s="31"/>
@@ -5383,12 +5375,12 @@
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
       <c r="H132" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I132" s="19"/>
       <c r="J132" s="19"/>
       <c r="K132" s="21" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="L132" s="21"/>
       <c r="M132" s="21"/>
@@ -5429,12 +5421,12 @@
         <v>2</v>
       </c>
       <c r="B134" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C134" s="29"/>
       <c r="D134" s="29"/>
       <c r="E134" s="30" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F134" s="30"/>
       <c r="G134" s="30"/>
@@ -5444,17 +5436,17 @@
       <c r="I134" s="29"/>
       <c r="J134" s="29"/>
       <c r="K134" s="30" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="L134" s="30"/>
       <c r="M134" s="30"/>
       <c r="N134" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O134" s="29"/>
       <c r="P134" s="29"/>
       <c r="Q134" s="30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="R134" s="30"/>
       <c r="S134" s="31"/>
@@ -5490,27 +5482,27 @@
       <c r="C136" s="29"/>
       <c r="D136" s="29"/>
       <c r="E136" s="30" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F136" s="30"/>
       <c r="G136" s="30"/>
       <c r="H136" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I136" s="29"/>
       <c r="J136" s="29"/>
       <c r="K136" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L136" s="30"/>
       <c r="M136" s="30"/>
       <c r="N136" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O136" s="29"/>
       <c r="P136" s="29"/>
       <c r="Q136" s="30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R136" s="30"/>
       <c r="S136" s="31"/>
@@ -5541,32 +5533,32 @@
         <v>4</v>
       </c>
       <c r="B138" s="29" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C138" s="29"/>
       <c r="D138" s="29"/>
       <c r="E138" s="30" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F138" s="30"/>
       <c r="G138" s="30"/>
       <c r="H138" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I138" s="29"/>
       <c r="J138" s="29"/>
       <c r="K138" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L138" s="30"/>
       <c r="M138" s="30"/>
       <c r="N138" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O138" s="29"/>
       <c r="P138" s="29"/>
       <c r="Q138" s="30" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="R138" s="30"/>
       <c r="S138" s="31"/>
@@ -5597,32 +5589,32 @@
         <v>5</v>
       </c>
       <c r="B140" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C140" s="29"/>
       <c r="D140" s="29"/>
       <c r="E140" s="30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F140" s="30"/>
       <c r="G140" s="30"/>
       <c r="H140" s="29" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I140" s="29"/>
       <c r="J140" s="29"/>
       <c r="K140" s="30" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="L140" s="30"/>
       <c r="M140" s="30"/>
       <c r="N140" s="29" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="O140" s="29"/>
       <c r="P140" s="29"/>
       <c r="Q140" s="30" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="R140" s="30"/>
       <c r="S140" s="31"/>
@@ -5653,22 +5645,22 @@
         <v>6</v>
       </c>
       <c r="B142" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C142" s="29"/>
       <c r="D142" s="29"/>
       <c r="E142" s="30" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F142" s="30"/>
       <c r="G142" s="30"/>
       <c r="H142" s="29" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="I142" s="29"/>
       <c r="J142" s="29"/>
       <c r="K142" s="30" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="L142" s="30"/>
       <c r="M142" s="30"/>
@@ -5719,22 +5711,22 @@
       <c r="F144" s="30"/>
       <c r="G144" s="30"/>
       <c r="H144" s="29" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="I144" s="29"/>
       <c r="J144" s="29"/>
       <c r="K144" s="30" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="L144" s="30"/>
       <c r="M144" s="30"/>
       <c r="N144" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O144" s="29"/>
       <c r="P144" s="29"/>
       <c r="Q144" s="30" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R144" s="30"/>
       <c r="S144" s="31"/>
@@ -5770,17 +5762,17 @@
       <c r="C146" s="29"/>
       <c r="D146" s="29"/>
       <c r="E146" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F146" s="30"/>
       <c r="G146" s="30"/>
       <c r="H146" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I146" s="29"/>
       <c r="J146" s="29"/>
       <c r="K146" s="30" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="L146" s="30"/>
       <c r="M146" s="30"/>
@@ -5821,32 +5813,32 @@
         <v>9</v>
       </c>
       <c r="B148" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C148" s="29"/>
       <c r="D148" s="29"/>
       <c r="E148" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F148" s="30"/>
       <c r="G148" s="30"/>
       <c r="H148" s="29" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I148" s="29"/>
       <c r="J148" s="29"/>
       <c r="K148" s="30" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L148" s="30"/>
       <c r="M148" s="30"/>
       <c r="N148" s="29" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="O148" s="29"/>
       <c r="P148" s="29"/>
       <c r="Q148" s="30" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="R148" s="30"/>
       <c r="S148" s="31"/>
@@ -5877,32 +5869,32 @@
         <v>10</v>
       </c>
       <c r="B150" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C150" s="29"/>
       <c r="D150" s="29"/>
       <c r="E150" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F150" s="30"/>
       <c r="G150" s="30"/>
       <c r="H150" s="29" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="I150" s="29"/>
       <c r="J150" s="29"/>
       <c r="K150" s="30" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L150" s="30"/>
       <c r="M150" s="30"/>
       <c r="N150" s="29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O150" s="29"/>
       <c r="P150" s="29"/>
       <c r="Q150" s="30" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="R150" s="30"/>
       <c r="S150" s="31"/>
@@ -5933,32 +5925,32 @@
         <v>11</v>
       </c>
       <c r="B152" s="29" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C152" s="29"/>
       <c r="D152" s="29"/>
       <c r="E152" s="30" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F152" s="30"/>
       <c r="G152" s="30"/>
       <c r="H152" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I152" s="29"/>
       <c r="J152" s="29"/>
       <c r="K152" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L152" s="30"/>
       <c r="M152" s="30"/>
       <c r="N152" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O152" s="29"/>
       <c r="P152" s="29"/>
       <c r="Q152" s="30" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="R152" s="30"/>
       <c r="S152" s="31"/>
@@ -6467,15 +6459,11 @@
     <mergeCell ref="K150:M151"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952A7F08-F228-4F20-90EA-878E08FE6FCB}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798A6DD7-F896-445F-9D5E-649B682E6688}">
   <dimension ref="A1:S69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -6674,23 +6662,23 @@
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
       <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -6742,32 +6730,32 @@
         <v>1</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="21" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="19" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
       <c r="K12" s="21" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
       <c r="N12" s="19" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="21" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="R12" s="21"/>
       <c r="S12" s="23"/>
@@ -6798,32 +6786,32 @@
         <v>2</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" s="30" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
       <c r="H14" s="29" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
       <c r="K14" s="30" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="L14" s="30"/>
       <c r="M14" s="30"/>
       <c r="N14" s="29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O14" s="29"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R14" s="30"/>
       <c r="S14" s="31"/>
@@ -6854,27 +6842,27 @@
         <v>3</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" s="30" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
       <c r="H16" s="29" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
       <c r="K16" s="30" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="L16" s="30"/>
       <c r="M16" s="30"/>
       <c r="N16" s="29" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="O16" s="29"/>
       <c r="P16" s="29"/>
@@ -6910,55 +6898,55 @@
         <v>4</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" s="30" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="29" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
       <c r="K18" s="30" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
       <c r="N18" s="29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O18" s="29"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="30" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="R18" s="30"/>
       <c r="S18" s="31"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
       <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -7010,7 +6998,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -7020,22 +7008,22 @@
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
       <c r="H22" s="19" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="21" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
       <c r="N22" s="19" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O22" s="19"/>
       <c r="P22" s="19"/>
       <c r="Q22" s="21" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="R22" s="21"/>
       <c r="S22" s="23"/>
@@ -7066,32 +7054,32 @@
         <v>2</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
       <c r="E24" s="30" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F24" s="30"/>
       <c r="G24" s="30"/>
       <c r="H24" s="29" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
       <c r="K24" s="30" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
       <c r="N24" s="29" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="O24" s="29"/>
       <c r="P24" s="29"/>
       <c r="Q24" s="30" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="R24" s="30"/>
       <c r="S24" s="31"/>
@@ -7122,32 +7110,32 @@
         <v>3</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
       <c r="E26" s="30" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
       <c r="H26" s="29" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
       <c r="K26" s="30" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
       <c r="N26" s="29" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O26" s="29"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="30" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="R26" s="30"/>
       <c r="S26" s="31"/>
@@ -7178,55 +7166,55 @@
         <v>4</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F28" s="30"/>
       <c r="G28" s="30"/>
       <c r="H28" s="29" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
       <c r="K28" s="30" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
       <c r="N28" s="29" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="O28" s="29"/>
       <c r="P28" s="29"/>
       <c r="Q28" s="30" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="R28" s="30"/>
       <c r="S28" s="31"/>
     </row>
     <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
       <c r="S29" s="24"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -7278,32 +7266,32 @@
         <v>1</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="21" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
       <c r="H32" s="19" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="21" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
       <c r="N32" s="19" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="O32" s="19"/>
       <c r="P32" s="19"/>
       <c r="Q32" s="21" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="R32" s="21"/>
       <c r="S32" s="23"/>
@@ -7334,32 +7322,32 @@
         <v>2</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
       <c r="E34" s="30" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
       <c r="H34" s="29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
       <c r="K34" s="30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L34" s="30"/>
       <c r="M34" s="30"/>
       <c r="N34" s="29" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="O34" s="29"/>
       <c r="P34" s="29"/>
       <c r="Q34" s="30" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="R34" s="30"/>
       <c r="S34" s="31"/>
@@ -7390,17 +7378,17 @@
         <v>3</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
       <c r="E36" s="30" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
       <c r="H36" s="29" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
@@ -7410,12 +7398,12 @@
       <c r="L36" s="30"/>
       <c r="M36" s="30"/>
       <c r="N36" s="29" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="O36" s="29"/>
       <c r="P36" s="29"/>
       <c r="Q36" s="30" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="R36" s="30"/>
       <c r="S36" s="31"/>
@@ -7446,55 +7434,55 @@
         <v>4</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
       <c r="E38" s="30" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="30"/>
       <c r="H38" s="29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
       <c r="K38" s="30" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L38" s="30"/>
       <c r="M38" s="30"/>
       <c r="N38" s="29" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="O38" s="29"/>
       <c r="P38" s="29"/>
       <c r="Q38" s="30" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="R38" s="30"/>
       <c r="S38" s="31"/>
     </row>
     <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
       <c r="S39" s="24"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -7546,27 +7534,27 @@
         <v>1</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
       <c r="E42" s="21" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
       <c r="H42" s="19" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
       <c r="K42" s="21" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
       <c r="N42" s="19" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="O42" s="19"/>
       <c r="P42" s="19"/>
@@ -7602,32 +7590,32 @@
         <v>2</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
       <c r="E44" s="30" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
       <c r="H44" s="29" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I44" s="29"/>
       <c r="J44" s="29"/>
       <c r="K44" s="30" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="L44" s="30"/>
       <c r="M44" s="30"/>
       <c r="N44" s="29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O44" s="29"/>
       <c r="P44" s="29"/>
       <c r="Q44" s="30" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="R44" s="30"/>
       <c r="S44" s="31"/>
@@ -7658,32 +7646,32 @@
         <v>3</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
       <c r="E46" s="30" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
       <c r="H46" s="29" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I46" s="29"/>
       <c r="J46" s="29"/>
       <c r="K46" s="30" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="L46" s="30"/>
       <c r="M46" s="30"/>
       <c r="N46" s="29" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="O46" s="29"/>
       <c r="P46" s="29"/>
       <c r="Q46" s="30" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="R46" s="30"/>
       <c r="S46" s="31"/>
@@ -7714,55 +7702,55 @@
         <v>4</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
       <c r="E48" s="30" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F48" s="30"/>
       <c r="G48" s="30"/>
       <c r="H48" s="29" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="I48" s="29"/>
       <c r="J48" s="29"/>
       <c r="K48" s="30" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="L48" s="30"/>
       <c r="M48" s="30"/>
       <c r="N48" s="29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O48" s="29"/>
       <c r="P48" s="29"/>
       <c r="Q48" s="30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="R48" s="30"/>
       <c r="S48" s="31"/>
     </row>
     <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="34"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
       <c r="S49" s="24"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -7814,32 +7802,32 @@
         <v>1</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19"/>
       <c r="E52" s="21" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
       <c r="H52" s="19" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="19"/>
       <c r="K52" s="21" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
       <c r="N52" s="19" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="O52" s="19"/>
       <c r="P52" s="19"/>
       <c r="Q52" s="21" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="R52" s="21"/>
       <c r="S52" s="23"/>
@@ -7870,32 +7858,32 @@
         <v>2</v>
       </c>
       <c r="B54" s="29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54" s="29"/>
       <c r="D54" s="29"/>
       <c r="E54" s="30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F54" s="30"/>
       <c r="G54" s="30"/>
       <c r="H54" s="29" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I54" s="29"/>
       <c r="J54" s="29"/>
       <c r="K54" s="30" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="L54" s="30"/>
       <c r="M54" s="30"/>
       <c r="N54" s="29" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
       <c r="Q54" s="30" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="R54" s="30"/>
       <c r="S54" s="31"/>
@@ -7926,7 +7914,7 @@
         <v>3</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C56" s="29"/>
       <c r="D56" s="29"/>
@@ -7936,22 +7924,22 @@
       <c r="F56" s="30"/>
       <c r="G56" s="30"/>
       <c r="H56" s="29" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="I56" s="29"/>
       <c r="J56" s="29"/>
       <c r="K56" s="30" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="L56" s="30"/>
       <c r="M56" s="30"/>
       <c r="N56" s="29" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="O56" s="29"/>
       <c r="P56" s="29"/>
       <c r="Q56" s="30" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="R56" s="30"/>
       <c r="S56" s="31"/>
@@ -7982,55 +7970,55 @@
         <v>4</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C58" s="29"/>
       <c r="D58" s="29"/>
       <c r="E58" s="30" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F58" s="30"/>
       <c r="G58" s="30"/>
       <c r="H58" s="29" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="I58" s="29"/>
       <c r="J58" s="29"/>
       <c r="K58" s="30" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="L58" s="30"/>
       <c r="M58" s="30"/>
       <c r="N58" s="29" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O58" s="29"/>
       <c r="P58" s="29"/>
       <c r="Q58" s="30" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="R58" s="30"/>
       <c r="S58" s="31"/>
     </row>
     <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="18"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="34"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
       <c r="S59" s="24"/>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -8082,17 +8070,17 @@
         <v>1</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="21" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
       <c r="H62" s="19" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
@@ -8102,12 +8090,12 @@
       <c r="L62" s="21"/>
       <c r="M62" s="21"/>
       <c r="N62" s="19" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="O62" s="19"/>
       <c r="P62" s="19"/>
       <c r="Q62" s="21" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="R62" s="21"/>
       <c r="S62" s="23"/>
@@ -8138,32 +8126,32 @@
         <v>2</v>
       </c>
       <c r="B64" s="29" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
       <c r="E64" s="30" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="F64" s="30"/>
       <c r="G64" s="30"/>
       <c r="H64" s="29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I64" s="29"/>
       <c r="J64" s="29"/>
       <c r="K64" s="30" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L64" s="30"/>
       <c r="M64" s="30"/>
       <c r="N64" s="29" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="O64" s="29"/>
       <c r="P64" s="29"/>
       <c r="Q64" s="30" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="R64" s="30"/>
       <c r="S64" s="31"/>
@@ -8194,32 +8182,32 @@
         <v>3</v>
       </c>
       <c r="B66" s="29" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
       <c r="E66" s="30" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F66" s="30"/>
       <c r="G66" s="30"/>
       <c r="H66" s="29" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="I66" s="29"/>
       <c r="J66" s="29"/>
       <c r="K66" s="30" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="L66" s="30"/>
       <c r="M66" s="30"/>
       <c r="N66" s="29" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="O66" s="29"/>
       <c r="P66" s="29"/>
       <c r="Q66" s="30" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="R66" s="30"/>
       <c r="S66" s="31"/>
@@ -8250,32 +8238,32 @@
         <v>4</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
       <c r="E68" s="30" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F68" s="30"/>
       <c r="G68" s="30"/>
       <c r="H68" s="29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I68" s="29"/>
       <c r="J68" s="29"/>
       <c r="K68" s="30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L68" s="30"/>
       <c r="M68" s="30"/>
       <c r="N68" s="29" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="O68" s="29"/>
       <c r="P68" s="29"/>
       <c r="Q68" s="30" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="R68" s="30"/>
       <c r="S68" s="31"/>
@@ -8490,6 +8478,5 @@
     <mergeCell ref="N8:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>